--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf16-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf16-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Fgf16</t>
+  </si>
+  <si>
+    <t>Fgfr3</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Fgf16</t>
-  </si>
-  <si>
-    <t>Fgfr3</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.06043066666666667</v>
+        <v>0.7297526666666666</v>
       </c>
       <c r="H2">
-        <v>0.181292</v>
+        <v>2.189258</v>
       </c>
       <c r="I2">
-        <v>0.03914407793923354</v>
+        <v>0.2331354772809149</v>
       </c>
       <c r="J2">
-        <v>0.03914407793923354</v>
+        <v>0.2331354772809149</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.408252</v>
+        <v>6.045145666666667</v>
       </c>
       <c r="N2">
-        <v>19.224756</v>
+        <v>18.135437</v>
       </c>
       <c r="O2">
-        <v>0.8583439096634812</v>
+        <v>0.8160840232643366</v>
       </c>
       <c r="P2">
-        <v>0.8583439096634812</v>
+        <v>0.8160840232643367</v>
       </c>
       <c r="Q2">
-        <v>0.387254940528</v>
+        <v>4.411461170638445</v>
       </c>
       <c r="R2">
-        <v>3.485294464752</v>
+        <v>39.703150535746</v>
       </c>
       <c r="S2">
-        <v>0.03359908089853374</v>
+        <v>0.1902581382650604</v>
       </c>
       <c r="T2">
-        <v>0.03359908089853374</v>
+        <v>0.1902581382650604</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.06043066666666667</v>
+        <v>0.7297526666666666</v>
       </c>
       <c r="H3">
-        <v>0.181292</v>
+        <v>2.189258</v>
       </c>
       <c r="I3">
-        <v>0.03914407793923354</v>
+        <v>0.2331354772809149</v>
       </c>
       <c r="J3">
-        <v>0.03914407793923354</v>
+        <v>0.2331354772809149</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>2.04733</v>
       </c>
       <c r="O3">
-        <v>0.09140887075868921</v>
+        <v>0.09212864864242169</v>
       </c>
       <c r="P3">
-        <v>0.09140887075868921</v>
+        <v>0.09212864864242169</v>
       </c>
       <c r="Q3">
-        <v>0.04124050559555556</v>
+        <v>0.4980148423488889</v>
       </c>
       <c r="R3">
-        <v>0.37116455036</v>
+        <v>4.482133581139999</v>
       </c>
       <c r="S3">
-        <v>0.003578115961315456</v>
+        <v>0.0214784564724967</v>
       </c>
       <c r="T3">
-        <v>0.003578115961315456</v>
+        <v>0.02147845647249669</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.06043066666666667</v>
+        <v>0.7297526666666666</v>
       </c>
       <c r="H4">
-        <v>0.181292</v>
+        <v>2.189258</v>
       </c>
       <c r="I4">
-        <v>0.03914407793923354</v>
+        <v>0.2331354772809149</v>
       </c>
       <c r="J4">
-        <v>0.03914407793923354</v>
+        <v>0.2331354772809149</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3751373333333334</v>
+        <v>0.6799149999999999</v>
       </c>
       <c r="N4">
-        <v>1.125412</v>
+        <v>2.039745</v>
       </c>
       <c r="O4">
-        <v>0.05024721957782963</v>
+        <v>0.09178732809324164</v>
       </c>
       <c r="P4">
-        <v>0.05024721957782963</v>
+        <v>0.09178732809324165</v>
       </c>
       <c r="Q4">
-        <v>0.02266979914488889</v>
+        <v>0.4961697843566666</v>
       </c>
       <c r="R4">
-        <v>0.204028192304</v>
+        <v>4.46552805921</v>
       </c>
       <c r="S4">
-        <v>0.001966881079384344</v>
+        <v>0.02139888254335782</v>
       </c>
       <c r="T4">
-        <v>0.001966881079384344</v>
+        <v>0.02139888254335782</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,31 +705,31 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7297526666666666</v>
+        <v>2.400413</v>
       </c>
       <c r="H5">
-        <v>2.189258</v>
+        <v>7.201238999999999</v>
       </c>
       <c r="I5">
-        <v>0.4726986617230243</v>
+        <v>0.766864522719085</v>
       </c>
       <c r="J5">
-        <v>0.4726986617230243</v>
+        <v>0.766864522719085</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.408252</v>
+        <v>6.045145666666667</v>
       </c>
       <c r="N5">
-        <v>19.224756</v>
+        <v>18.135437</v>
       </c>
       <c r="O5">
-        <v>0.8583439096634812</v>
+        <v>0.8160840232643366</v>
       </c>
       <c r="P5">
-        <v>0.8583439096634812</v>
+        <v>0.8160840232643367</v>
       </c>
       <c r="Q5">
-        <v>4.676438985671999</v>
+        <v>14.51084624516033</v>
       </c>
       <c r="R5">
-        <v>42.08795087104799</v>
+        <v>130.597616206443</v>
       </c>
       <c r="S5">
-        <v>0.405738017396036</v>
+        <v>0.6258258849992762</v>
       </c>
       <c r="T5">
-        <v>0.405738017396036</v>
+        <v>0.6258258849992763</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,31 +767,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.7297526666666666</v>
+        <v>2.400413</v>
       </c>
       <c r="H6">
-        <v>2.189258</v>
+        <v>7.201238999999999</v>
       </c>
       <c r="I6">
-        <v>0.4726986617230243</v>
+        <v>0.766864522719085</v>
       </c>
       <c r="J6">
-        <v>0.4726986617230243</v>
+        <v>0.766864522719085</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>2.04733</v>
       </c>
       <c r="O6">
-        <v>0.09140887075868921</v>
+        <v>0.09212864864242169</v>
       </c>
       <c r="P6">
-        <v>0.09140887075868921</v>
+        <v>0.09212864864242169</v>
       </c>
       <c r="Q6">
-        <v>0.4980148423488889</v>
+        <v>1.638145849096667</v>
       </c>
       <c r="R6">
-        <v>4.482133581139999</v>
+        <v>14.74331264187</v>
       </c>
       <c r="S6">
-        <v>0.04320885087724528</v>
+        <v>0.07065019216992499</v>
       </c>
       <c r="T6">
-        <v>0.04320885087724528</v>
+        <v>0.07065019216992499</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,31 +829,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.7297526666666666</v>
+        <v>2.400413</v>
       </c>
       <c r="H7">
-        <v>2.189258</v>
+        <v>7.201238999999999</v>
       </c>
       <c r="I7">
-        <v>0.4726986617230243</v>
+        <v>0.766864522719085</v>
       </c>
       <c r="J7">
-        <v>0.4726986617230243</v>
+        <v>0.766864522719085</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3751373333333334</v>
+        <v>0.6799149999999999</v>
       </c>
       <c r="N7">
-        <v>1.125412</v>
+        <v>2.039745</v>
       </c>
       <c r="O7">
-        <v>0.05024721957782963</v>
+        <v>0.09178732809324164</v>
       </c>
       <c r="P7">
-        <v>0.05024721957782963</v>
+        <v>0.09178732809324165</v>
       </c>
       <c r="Q7">
-        <v>0.2737574693662223</v>
+        <v>1.632076804895</v>
       </c>
       <c r="R7">
-        <v>2.463817224296</v>
+        <v>14.688691244055</v>
       </c>
       <c r="S7">
-        <v>0.02375179344974301</v>
+        <v>0.07038844554988381</v>
       </c>
       <c r="T7">
-        <v>0.02375179344974301</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0.7536176666666666</v>
-      </c>
-      <c r="H8">
-        <v>2.260853</v>
-      </c>
-      <c r="I8">
-        <v>0.4881572603377422</v>
-      </c>
-      <c r="J8">
-        <v>0.4881572603377422</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>6.408252</v>
-      </c>
-      <c r="N8">
-        <v>19.224756</v>
-      </c>
-      <c r="O8">
-        <v>0.8583439096634812</v>
-      </c>
-      <c r="P8">
-        <v>0.8583439096634812</v>
-      </c>
-      <c r="Q8">
-        <v>4.829371919652</v>
-      </c>
-      <c r="R8">
-        <v>43.464347276868</v>
-      </c>
-      <c r="S8">
-        <v>0.4190068113689114</v>
-      </c>
-      <c r="T8">
-        <v>0.4190068113689114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.7536176666666666</v>
-      </c>
-      <c r="H9">
-        <v>2.260853</v>
-      </c>
-      <c r="I9">
-        <v>0.4881572603377422</v>
-      </c>
-      <c r="J9">
-        <v>0.4881572603377422</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.6824433333333334</v>
-      </c>
-      <c r="N9">
-        <v>2.04733</v>
-      </c>
-      <c r="O9">
-        <v>0.09140887075868921</v>
-      </c>
-      <c r="P9">
-        <v>0.09140887075868921</v>
-      </c>
-      <c r="Q9">
-        <v>0.5143013524988889</v>
-      </c>
-      <c r="R9">
-        <v>4.62871217249</v>
-      </c>
-      <c r="S9">
-        <v>0.04462190392012848</v>
-      </c>
-      <c r="T9">
-        <v>0.04462190392012848</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.7536176666666666</v>
-      </c>
-      <c r="H10">
-        <v>2.260853</v>
-      </c>
-      <c r="I10">
-        <v>0.4881572603377422</v>
-      </c>
-      <c r="J10">
-        <v>0.4881572603377422</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.3751373333333334</v>
-      </c>
-      <c r="N10">
-        <v>1.125412</v>
-      </c>
-      <c r="O10">
-        <v>0.05024721957782963</v>
-      </c>
-      <c r="P10">
-        <v>0.05024721957782963</v>
-      </c>
-      <c r="Q10">
-        <v>0.2827101218262222</v>
-      </c>
-      <c r="R10">
-        <v>2.544391096436</v>
-      </c>
-      <c r="S10">
-        <v>0.02452854504870228</v>
-      </c>
-      <c r="T10">
-        <v>0.02452854504870228</v>
+        <v>0.07038844554988383</v>
       </c>
     </row>
   </sheetData>
